--- a/VersionRecords/Version 5.2.3 20170106/版本Bug和特性计划及评审表v5.2.3.xlsx
+++ b/VersionRecords/Version 5.2.3 20170106/版本Bug和特性计划及评审表v5.2.3.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
   <si>
     <t>No</t>
   </si>
@@ -361,61 +361,70 @@
     <t>下线老版分散式房源录入（隐藏入口）</t>
   </si>
   <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+  </si>
+  <si>
+    <t>DV-1993</t>
+  </si>
+  <si>
+    <t>房态图，若无已出租房源，则数据统计收租率显示0%</t>
+  </si>
+  <si>
+    <t>房东PC,房态图</t>
+  </si>
+  <si>
+    <t>孙星恒</t>
+  </si>
+  <si>
+    <t>DV-2010</t>
+  </si>
+  <si>
+    <t>房东PC顶部菜单栏微信二维码内容调整</t>
+  </si>
+  <si>
+    <t>房东PC,租客pc</t>
+  </si>
+  <si>
+    <t>DV-2025</t>
+  </si>
+  <si>
+    <t>开放城市商圈</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>安栋</t>
+  </si>
+  <si>
+    <t>DV-1651</t>
+  </si>
+  <si>
+    <t>房东大屏埋点无效</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+  </si>
+  <si>
+    <t>免测</t>
+  </si>
+  <si>
+    <t>ZWBB-83</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>房东PC</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>李萌</t>
-  </si>
-  <si>
-    <t>DV-1993</t>
-  </si>
-  <si>
-    <t>房态图，若无已出租房源，则数据统计收租率显示0%</t>
-  </si>
-  <si>
-    <t>房东PC,房态图</t>
-  </si>
-  <si>
-    <t>孙星恒</t>
-  </si>
-  <si>
-    <t>DV-2010</t>
-  </si>
-  <si>
-    <t>房东PC顶部菜单栏微信二维码内容调整</t>
-  </si>
-  <si>
-    <t>房东PC,租客pc</t>
-  </si>
-  <si>
-    <t>DV-2025</t>
-  </si>
-  <si>
-    <t>开放城市商圈</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>安栋</t>
-  </si>
-  <si>
-    <t>DV-1651</t>
-  </si>
-  <si>
-    <t>房东大屏埋点无效</t>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-  </si>
-  <si>
-    <t>免测</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1162,6 +1171,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,36 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1611,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1785,7 +1794,9 @@
       <c r="E3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="G3" s="38" t="s">
         <v>71</v>
       </c>
@@ -1817,7 +1828,9 @@
       <c r="Q3" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="44"/>
+      <c r="R3" s="94" t="s">
+        <v>119</v>
+      </c>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="51"/>
@@ -1828,50 +1841,50 @@
       <c r="A4" s="77">
         <v>3</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="88">
         <v>42740</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="88">
         <v>42740</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="98" t="s">
+      <c r="K4" s="87"/>
+      <c r="L4" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="97">
+      <c r="P4" s="88">
         <v>42740</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="89" t="s">
         <v>90</v>
       </c>
       <c r="R4" s="44"/>
@@ -1879,7 +1892,7 @@
       <c r="T4" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="99" t="s">
+      <c r="U4" s="90" t="s">
         <v>92</v>
       </c>
       <c r="V4" s="84"/>
@@ -1888,218 +1901,218 @@
       <c r="A5" s="77">
         <v>4</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="88">
         <v>42740</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="88">
         <v>42740</v>
       </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="98" t="s">
+      <c r="K5" s="87"/>
+      <c r="L5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="96" t="s">
+      <c r="M5" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="97">
+      <c r="P5" s="88">
         <v>42740</v>
       </c>
-      <c r="Q5" s="98" t="s">
+      <c r="Q5" s="89" t="s">
         <v>90</v>
       </c>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
       <c r="T5" s="51"/>
-      <c r="U5" s="100"/>
+      <c r="U5" s="91"/>
       <c r="V5" s="84"/>
     </row>
     <row r="6" spans="1:23" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="77">
         <v>5</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="88">
         <v>42740</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="88">
         <v>42740</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="98" t="s">
+      <c r="K6" s="87"/>
+      <c r="L6" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="96" t="s">
+      <c r="M6" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="98" t="s">
+      <c r="O6" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="97">
+      <c r="P6" s="88">
         <v>42740</v>
       </c>
-      <c r="Q6" s="98" t="s">
+      <c r="Q6" s="89" t="s">
         <v>90</v>
       </c>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="51"/>
-      <c r="U6" s="99"/>
+      <c r="U6" s="90"/>
       <c r="V6" s="84"/>
     </row>
     <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="77">
         <v>6</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="88">
         <v>42740</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="97">
+      <c r="J7" s="88">
         <v>42740</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="98" t="s">
+      <c r="K7" s="87"/>
+      <c r="L7" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="97">
+      <c r="P7" s="88">
         <v>42740</v>
       </c>
-      <c r="Q7" s="98" t="s">
+      <c r="Q7" s="89" t="s">
         <v>90</v>
       </c>
       <c r="R7" s="44"/>
       <c r="S7" s="44"/>
       <c r="T7" s="51"/>
-      <c r="U7" s="100"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="84"/>
     </row>
     <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="77">
         <v>7</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="88">
         <v>42740</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="88">
         <v>42740</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="98" t="s">
+      <c r="K8" s="87"/>
+      <c r="L8" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="96" t="s">
+      <c r="N8" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="88">
         <v>42740</v>
       </c>
-      <c r="Q8" s="98" t="s">
+      <c r="Q8" s="89" t="s">
         <v>90</v>
       </c>
       <c r="R8" s="44">
@@ -2107,302 +2120,302 @@
       </c>
       <c r="S8" s="44"/>
       <c r="T8" s="51"/>
-      <c r="U8" s="100"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="84"/>
     </row>
     <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="77">
         <v>8</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="88">
+        <v>42740</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="88">
+        <v>42740</v>
+      </c>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="97">
-        <v>42740</v>
-      </c>
-      <c r="I9" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="97">
-        <v>42740</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96" t="s">
+      <c r="M9" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="N9" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="O9" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="88">
+        <v>42741</v>
+      </c>
+      <c r="Q9" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="93" t="s">
         <v>104</v>
-      </c>
-      <c r="O9" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="97">
-        <v>42741</v>
-      </c>
-      <c r="Q9" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="102" t="s">
-        <v>105</v>
       </c>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="51"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="84"/>
     </row>
     <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="77">
         <v>9</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="96" t="s">
+      <c r="G10" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="88">
+        <v>42740</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="88">
+        <v>42740</v>
+      </c>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="97">
-        <v>42740</v>
-      </c>
-      <c r="I10" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="97">
-        <v>42740</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96" t="s">
+      <c r="M10" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="88">
+        <v>42741</v>
+      </c>
+      <c r="Q10" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="93" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="97">
-        <v>42741</v>
-      </c>
-      <c r="Q10" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
       <c r="U10" s="51"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="90"/>
       <c r="W10" s="84"/>
     </row>
     <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="77">
         <v>10</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="96" t="s">
+      <c r="G11" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="88">
+        <v>42740</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="88">
+        <v>42740</v>
+      </c>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="88">
+        <v>42741</v>
+      </c>
+      <c r="Q11" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="93" t="s">
         <v>111</v>
-      </c>
-      <c r="G11" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="97">
-        <v>42740</v>
-      </c>
-      <c r="I11" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="97">
-        <v>42740</v>
-      </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="97">
-        <v>42741</v>
-      </c>
-      <c r="Q11" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="102" t="s">
-        <v>112</v>
       </c>
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
       <c r="U11" s="51"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="84"/>
     </row>
     <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="77">
         <v>11</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="96" t="s">
+      <c r="G12" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="88">
+        <v>42740</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="88">
+        <v>42740</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="97">
-        <v>42740</v>
-      </c>
-      <c r="I12" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="97">
-        <v>42740</v>
-      </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96" t="s">
+      <c r="M12" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="88">
+        <v>42741</v>
+      </c>
+      <c r="Q12" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="93" t="s">
         <v>115</v>
-      </c>
-      <c r="M12" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="97">
-        <v>42741</v>
-      </c>
-      <c r="Q12" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="102" t="s">
-        <v>116</v>
       </c>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="51"/>
-      <c r="V12" s="100"/>
+      <c r="V12" s="91"/>
       <c r="W12" s="84"/>
     </row>
     <row r="13" spans="1:23" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="77">
         <v>12</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="96" t="s">
+      <c r="G13" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="88">
+        <v>42741</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="88">
+        <v>42741</v>
+      </c>
+      <c r="K13" s="87"/>
+      <c r="L13" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="97">
+      <c r="O13" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="88">
         <v>42741</v>
       </c>
-      <c r="I13" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="97">
-        <v>42741</v>
-      </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="97">
-        <v>42741</v>
-      </c>
-      <c r="Q13" s="98" t="s">
+      <c r="Q13" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="98"/>
-      <c r="S13" s="103">
+      <c r="R13" s="89"/>
+      <c r="S13" s="94">
         <v>7023</v>
       </c>
       <c r="T13" s="44"/>
       <c r="U13" s="51"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="84"/>
     </row>
     <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -6069,9 +6082,10 @@
     <hyperlink ref="R12" r:id="rId4"/>
     <hyperlink ref="R11" r:id="rId5"/>
     <hyperlink ref="S13" r:id="rId6" display="7023"/>
+    <hyperlink ref="R3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6246,19 +6260,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6296,8 +6310,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6309,8 +6323,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6322,8 +6336,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6335,8 +6349,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6348,8 +6362,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6361,8 +6375,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6374,8 +6388,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6387,8 +6401,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6449,36 +6463,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6763,36 +6777,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7077,36 +7091,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7393,36 +7407,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
